--- a/docs/odh/shr-core-Practitioner-model.xlsx
+++ b/docs/odh/shr-core-Practitioner-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$19</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="95">
   <si>
     <t>Path</t>
   </si>
@@ -144,7 +144,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Metadata-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Metadata-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -161,10 +161,6 @@
     <t>A human language, spoken or written.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0023008
-</t>
-  </si>
-  <si>
     <t>shr-core-Practitioner-model.implicitRules</t>
   </si>
   <si>
@@ -178,7 +174,7 @@
     <t>shr-core-Practitioner-model.narrative</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Narrative-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Narrative-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -191,71 +187,93 @@
     <t>A state that relates to the workflow or interpretation of this resource. Certain status values can modify the meaning of the resource, for example, entered-in-error. When a boolean value is used, Status of true indicates the record is active, false means inactive.</t>
   </si>
   <si>
+    <t>shr-core-Practitioner-model.identifier</t>
+  </si>
+  <si>
+    <t>Business identifier or external id for this resource.</t>
+  </si>
+  <si>
+    <t>shr-core-Practitioner-model.identifier.nationalProviderIdentifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-NationalProviderIdentifier-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>NPI: a unique 10 digit number to allow US healthcare providers to identify themselves in a standard way throughout the healthcare industry.</t>
+  </si>
+  <si>
+    <t>shr-core-Practitioner-model.identifier.taxIdentificationNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-TaxIdentificationNumber-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Tax identification number for the practitioner.</t>
+  </si>
+  <si>
+    <t>shr-core-Practitioner-model.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Whether the record is in use (true) or retired (false).</t>
+  </si>
+  <si>
+    <t>shr-core-Practitioner-model.humanName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-HumanName-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A name used by a human being, written as it would be typically expressed. May include a breakdown of the various elements of the name (family name, given name, etc.).</t>
+  </si>
+  <si>
+    <t>shr-core-Practitioner-model.contactPoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ContactPoint-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>An electronic means of contacting an organization or individual.</t>
+  </si>
+  <si>
+    <t>shr-core-Practitioner-model.address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Address-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats). This data type may be used to convey addresses for use in delivering mail as well as for visiting locations and which might not be valid for mail delivery. There are a variety of postal address formats defined around the world. (Source: HL7 FHIR).</t>
+  </si>
+  <si>
+    <t>shr-core-Practitioner-model.administrativeGender</t>
+  </si>
+  <si>
+    <t>A gender classification used for administrative purposes. Administrative gender is not necessarily the same as a biological description or a gender identity. This attribute does not include terms related to clinical gender.</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/ActiveOrInactiveVS</t>
-  </si>
-  <si>
-    <t>shr-core-Practitioner-model.identifier</t>
-  </si>
-  <si>
-    <t>Business identifier or external id for this resource.</t>
-  </si>
-  <si>
-    <t>shr-core-Practitioner-model.identifier.nationalProviderIdentifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-NationalProviderIdentifier-model {[]} {[]}
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1550327
 </t>
   </si>
   <si>
-    <t>NPI: a unique 10 digit number to allow US healthcare providers to identify themselves in a standard way throughout the healthcare industry.</t>
-  </si>
-  <si>
-    <t>shr-core-Practitioner-model.identifier.taxIdentificationNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TaxIdentificationNumber-model {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Tax identification number for the practitioner.</t>
-  </si>
-  <si>
-    <t>shr-core-Practitioner-model.person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Person-model {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A person relevant to the health or social situation of the subject (including the subject him- or herself).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0027361
-</t>
-  </si>
-  <si>
-    <t>shr-core-Practitioner-model.person.humanName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-HumanName-model {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A name used by a human being, written as it would be typically expressed. May include a breakdown of the various elements of the name (family name, given name, etc.).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1547383
-</t>
-  </si>
-  <si>
-    <t>shr-core-Practitioner-model.person.dateOfBirth[x]</t>
+    <t>shr-core-Practitioner-model.birthDate[x]</t>
   </si>
   <si>
     <t>date {[]} {[]}
-http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}</t>
+http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}</t>
   </si>
   <si>
     <t>A date of birth or approximate year or period (year or date range), if estimated.</t>
@@ -265,37 +283,10 @@
 http://loinc.org#21112-8</t>
   </si>
   <si>
-    <t>shr-core-Practitioner-model.person.administrativeGender</t>
-  </si>
-  <si>
-    <t>A gender classification used for administrative purposes. Administrative gender is not necessarily the same as a biological description or a gender identity. This attribute does not include terms related to clinical gender.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1550327
-</t>
-  </si>
-  <si>
-    <t>shr-core-Practitioner-model.person.address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Address-model {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats). This data type may be used to convey addresses for use in delivering mail as well as for visiting locations and which might not be valid for mail delivery. There are a variety of postal address formats defined around the world. (Source: HL7 FHIR).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0682130
-</t>
-  </si>
-  <si>
-    <t>shr-core-Practitioner-model.person.photographicImage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PhotographicImage-model {[]} {[]}
+    <t>shr-core-Practitioner-model.photographicImage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-PhotographicImage-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -306,112 +297,10 @@
 </t>
   </si>
   <si>
-    <t>shr-core-Practitioner-model.person.contactPoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ContactPoint-model {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>An electronic means of contacting an organization or individual.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C2986441
-</t>
-  </si>
-  <si>
-    <t>shr-core-Practitioner-model.person.communication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Communication-model {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language used for communication by a human, either the subject of record, parent, or other involved person.</t>
-  </si>
-  <si>
-    <t>shr-core-Practitioner-model.person.maritalStatus</t>
-  </si>
-  <si>
-    <t>The most recent marital status of a person.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/marital-status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0024819
-</t>
-  </si>
-  <si>
-    <t>shr-core-Practitioner-model.person.multipleBirth[x]</t>
-  </si>
-  <si>
-    <t>boolean {[]} {[]}
-integer {[]} {[]}</t>
-  </si>
-  <si>
-    <t>If the person was part of a multiple birth event, and if so in which order.</t>
-  </si>
-  <si>
-    <t>shr-core-Practitioner-model.person.birthSex</t>
-  </si>
-  <si>
-    <t>Administrative sex assigned at birth and recorded on birth certificate.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-birthsex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C4086849
-</t>
-  </si>
-  <si>
-    <t>shr-core-Practitioner-model.person.race</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Race-model {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Subjective association of a person with a named category of humans sharing common history, traits, place of family origin, nationality, tribe, or other inherited background.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0034510
-</t>
-  </si>
-  <si>
-    <t>shr-core-Practitioner-model.person.ethnicity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Ethnicity-model {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Indicator of Hispanic or Latino origin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0015031
-</t>
-  </si>
-  <si>
-    <t>shr-core-Practitioner-model.person.deceased[x]</t>
-  </si>
-  <si>
-    <t>boolean {[]} {[]}
-dateTime {[]} {[]}</t>
-  </si>
-  <si>
-    <t>An indication that the person is no longer living, given by a date of death, or boolean value. The latter, when true, indicates the person is deceased.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0011065
-</t>
-  </si>
-  <si>
     <t>shr-core-Practitioner-model.qualification</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Qualification-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Qualification-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -420,6 +309,16 @@
   <si>
     <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0037778
 </t>
+  </si>
+  <si>
+    <t>shr-core-Practitioner-model.communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Communication-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language used for communication by a human, either the subject of record, parent, or other involved person.</t>
   </si>
 </sst>
 </file>
@@ -568,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AI19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -601,7 +500,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.56640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="46.80859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="55.05078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -980,7 +879,7 @@
         <v>36</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>36</v>
@@ -1012,7 +911,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1035,13 +934,13 @@
         <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1092,7 +991,7 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
@@ -1109,7 +1008,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1132,13 +1031,13 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1189,7 +1088,7 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
@@ -1206,7 +1105,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1217,7 +1116,7 @@
         <v>37</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>36</v>
@@ -1232,10 +1131,10 @@
         <v>45</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1262,11 +1161,13 @@
         <v>36</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="X7" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y7" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>36</v>
@@ -1284,13 +1185,13 @@
         <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>36</v>
@@ -1301,7 +1202,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1327,10 +1228,10 @@
         <v>36</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1381,7 +1282,7 @@
         <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>41</v>
@@ -1398,7 +1299,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1421,13 +1322,13 @@
         <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1478,7 +1379,7 @@
         <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>37</v>
@@ -1495,7 +1396,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1518,13 +1419,13 @@
         <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1575,7 +1476,7 @@
         <v>36</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>37</v>
@@ -1592,7 +1493,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1600,7 +1501,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>41</v>
@@ -1615,13 +1516,13 @@
         <v>36</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1657,7 +1558,7 @@
         <v>36</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>36</v>
@@ -1672,10 +1573,10 @@
         <v>36</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>41</v>
@@ -1689,7 +1590,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1712,13 +1613,13 @@
         <v>36</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1754,7 +1655,7 @@
         <v>36</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>36</v>
@@ -1769,13 +1670,13 @@
         <v>36</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>36</v>
@@ -1786,7 +1687,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1797,7 +1698,7 @@
         <v>37</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>36</v>
@@ -1809,13 +1710,13 @@
         <v>36</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1851,7 +1752,7 @@
         <v>36</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>36</v>
@@ -1866,13 +1767,13 @@
         <v>36</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>36</v>
@@ -1883,7 +1784,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1891,10 +1792,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>36</v>
@@ -1906,13 +1807,13 @@
         <v>36</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1939,14 +1840,16 @@
         <v>36</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="X14" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y14" t="s" s="2">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>36</v>
@@ -1961,13 +1864,13 @@
         <v>36</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>36</v>
@@ -1978,7 +1881,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1989,7 +1892,7 @@
         <v>37</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>36</v>
@@ -2001,13 +1904,13 @@
         <v>36</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2034,16 +1937,14 @@
         <v>36</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>36</v>
@@ -2058,13 +1959,13 @@
         <v>36</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>36</v>
@@ -2075,7 +1976,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2086,7 +1987,7 @@
         <v>37</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>36</v>
@@ -2098,13 +1999,13 @@
         <v>36</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2140,7 +2041,7 @@
         <v>36</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>36</v>
@@ -2155,13 +2056,13 @@
         <v>36</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>36</v>
@@ -2172,7 +2073,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2195,13 +2096,13 @@
         <v>36</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2237,7 +2138,7 @@
         <v>36</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>36</v>
@@ -2252,7 +2153,7 @@
         <v>36</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>37</v>
@@ -2269,7 +2170,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2292,13 +2193,13 @@
         <v>36</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2334,7 +2235,7 @@
         <v>36</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>36</v>
@@ -2349,7 +2250,7 @@
         <v>36</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>37</v>
@@ -2366,7 +2267,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2377,7 +2278,7 @@
         <v>37</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>36</v>
@@ -2389,13 +2290,13 @@
         <v>36</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2422,14 +2323,16 @@
         <v>36</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="X19" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y19" t="s" s="2">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>36</v>
@@ -2444,603 +2347,23 @@
         <v>36</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" hidden="true">
-      <c r="A20" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" hidden="true">
-      <c r="A21" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="X21" s="2"/>
-      <c r="Y21" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" hidden="true">
-      <c r="A22" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" hidden="true">
-      <c r="A23" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" hidden="true">
-      <c r="A24" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" hidden="true">
-      <c r="A25" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI25" t="s" s="2">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI25">
+  <autoFilter ref="A1:AI19">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3050,7 +2373,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI24">
+  <conditionalFormatting sqref="A2:AI18">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
